--- a/src/main/resources/purchaseOrderTemplate.xlsx
+++ b/src/main/resources/purchaseOrderTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Code</t>
   </si>
@@ -135,6 +135,9 @@
     <t>RRP inc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Picture</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +148,7 @@
     <numFmt numFmtId="165" formatCode="0_ "/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +238,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -330,7 +342,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +350,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -405,6 +423,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -414,6 +441,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,26 +465,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -750,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -771,197 +791,200 @@
     <col min="11" max="11" width="12.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="19"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="19"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="19"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="19"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="19"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="19"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="19"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="19"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1">
+    <row r="10" spans="1:12" ht="21.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1">
+    <row r="11" spans="1:12" ht="21.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1">
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/purchaseOrderTemplate.xlsx
+++ b/src/main/resources/purchaseOrderTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Code</t>
   </si>
@@ -134,9 +134,6 @@
   <si>
     <t>RRP inc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Picture</t>
   </si>
 </sst>
 </file>
@@ -342,7 +339,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +347,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -466,9 +472,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -770,15 +779,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -791,7 +800,7 @@
     <col min="11" max="11" width="12.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
@@ -806,7 +815,7 @@
       <c r="J1" s="31"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -820,7 +829,7 @@
       <c r="I2" s="19"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -834,7 +843,7 @@
       <c r="I3" s="19"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -848,7 +857,7 @@
       <c r="I4" s="19"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -862,7 +871,7 @@
       <c r="I5" s="19"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -876,7 +885,7 @@
       <c r="I6" s="19"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -890,7 +899,7 @@
       <c r="I7" s="19"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -904,7 +913,7 @@
       <c r="I8" s="19"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -918,7 +927,7 @@
       <c r="I9" s="19"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="21.75" customHeight="1">
+    <row r="10" spans="1:11" ht="21.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
@@ -930,46 +939,43 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="21.75" customHeight="1">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
